--- a/OC_ModeloGMO_Guillermo_031023_061023.xlsx
+++ b/OC_ModeloGMO_Guillermo_031023_061023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5854CB72-0782-4615-9941-2D4AE6548322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1B19D5-60F1-47AC-89A1-3443FBFE559F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{0C488055-E415-4EE0-9C7C-F8FFF0BA9D31}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0C488055-E415-4EE0-9C7C-F8FFF0BA9D31}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -123,7 +123,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922C94B0-E8DE-498F-9C90-99CA3342A035}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +476,7 @@
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45202.5625</v>
       </c>
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45202.583333333336</v>
       </c>
@@ -527,7 +527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45203.569444444445</v>
       </c>
@@ -544,224 +544,263 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="G5" s="2">
         <v>45203.569444444445</v>
       </c>
-      <c r="B5" s="3">
+      <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="I5" s="2">
         <v>45203.569444444445</v>
       </c>
-      <c r="D5" s="2">
+      <c r="J5" s="2">
         <v>45203.576388888891</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="G6" s="2">
         <v>45203.576388888891</v>
       </c>
-      <c r="B6" s="3">
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="I6" s="2">
         <v>45203.576388888891</v>
       </c>
-      <c r="D6" s="2">
+      <c r="J6" s="2">
         <v>45203.583333333336</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="G7" s="2">
         <v>45203.583333333336</v>
       </c>
-      <c r="B7" s="3">
+      <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="I7" s="2">
         <v>45203.583333333336</v>
       </c>
-      <c r="D7" s="2">
+      <c r="J7" s="2">
         <v>45203.590277777781</v>
       </c>
-      <c r="E7" t="s">
+      <c r="K7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="G8" s="2">
         <v>45203.590277777781</v>
       </c>
-      <c r="B8" s="3">
+      <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="I8" s="2">
         <v>45203.590277777781</v>
       </c>
-      <c r="D8" s="2">
+      <c r="J8" s="2">
         <v>45203.597222222219</v>
       </c>
-      <c r="E8" t="s">
+      <c r="K8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="G9" s="2">
         <v>45203.597222222219</v>
       </c>
-      <c r="B9" s="3">
+      <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="2">
+      <c r="I9" s="2">
         <v>45203.597222222219</v>
       </c>
-      <c r="D9" s="2">
+      <c r="J9" s="2">
         <v>45203.604166666664</v>
       </c>
-      <c r="E9" t="s">
+      <c r="K9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="G10" s="2">
         <v>45203.604166666664</v>
       </c>
-      <c r="B10" s="3">
+      <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="I10" s="2">
         <v>45203.604166666664</v>
       </c>
-      <c r="D10" s="2">
+      <c r="J10" s="2">
         <v>45204.5625</v>
       </c>
-      <c r="E10" t="s">
+      <c r="K10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="G11" s="2">
         <v>45204.569444444445</v>
       </c>
-      <c r="B11" s="3">
+      <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="C11" s="2">
+      <c r="I11" s="2">
         <v>45204.569444444445</v>
       </c>
-      <c r="D11" s="2">
+      <c r="J11" s="2">
         <v>45204.576388888891</v>
       </c>
-      <c r="E11" t="s">
+      <c r="K11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="G12" s="2">
         <v>45204.576388888891</v>
       </c>
-      <c r="B12" s="3">
+      <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
+      <c r="I12" s="2">
         <v>45204.576388888891</v>
       </c>
-      <c r="D12" s="2">
+      <c r="J12" s="2">
         <v>45204.583333333336</v>
       </c>
-      <c r="E12" t="s">
+      <c r="K12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="G13" s="2">
         <v>45204.583333333336</v>
       </c>
-      <c r="B13" s="3">
+      <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="C13" s="2">
+      <c r="I13" s="2">
         <v>45204.583333333336</v>
       </c>
-      <c r="D13" s="2">
+      <c r="J13" s="2">
         <v>45204.590277777781</v>
       </c>
-      <c r="E13" t="s">
+      <c r="K13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="G14" s="2">
         <v>45204.590277777781</v>
       </c>
-      <c r="B14" s="3">
+      <c r="H14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="I14" s="2">
         <v>45204.590277777781</v>
       </c>
-      <c r="D14" s="2">
+      <c r="J14" s="2">
         <v>45204.597222222219</v>
       </c>
-      <c r="E14" t="s">
+      <c r="K14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="G15" s="2">
         <v>45204.597222222219</v>
       </c>
-      <c r="B15" s="3">
+      <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="C15" s="2">
+      <c r="I15" s="2">
         <v>45204.597222222219</v>
       </c>
-      <c r="D15" s="2">
+      <c r="J15" s="2">
         <v>45205.576388888891</v>
       </c>
-      <c r="E15" t="s">
+      <c r="K15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="G16" s="2">
         <v>45205.576388888891</v>
       </c>
-      <c r="B16" s="3">
+      <c r="H16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="2">
+      <c r="I16" s="2">
         <v>45205.576388888891</v>
       </c>
-      <c r="D16" s="2">
+      <c r="J16" s="2">
         <v>45205.583333333336</v>
       </c>
-      <c r="E16" t="s">
+      <c r="K16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="G17" s="2">
         <v>45205.583333333336</v>
       </c>
-      <c r="B17" s="3">
+      <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="C17" s="2">
+      <c r="I17" s="2">
         <v>45205.583333333336</v>
       </c>
-      <c r="D17" s="2">
+      <c r="J17" s="2">
         <v>45205.590277777781</v>
       </c>
-      <c r="E17" t="s">
+      <c r="K17" t="s">
         <v>9</v>
       </c>
     </row>

--- a/OC_ModeloGMO_Guillermo_031023_061023.xlsx
+++ b/OC_ModeloGMO_Guillermo_031023_061023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1B19D5-60F1-47AC-89A1-3443FBFE559F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1698BB-C210-4EB2-8227-F9AC63739EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0C488055-E415-4EE0-9C7C-F8FFF0BA9D31}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,6 +474,9 @@
     <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -528,19 +531,19 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="G4" s="2">
         <v>45203.569444444445</v>
       </c>
-      <c r="B4" s="3">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="I4" s="2">
         <v>45203.569444444445</v>
       </c>
-      <c r="D4" s="2">
+      <c r="J4" s="2">
         <v>45203.569444444445</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/OC_ModeloGMO_Guillermo_031023_061023.xlsx
+++ b/OC_ModeloGMO_Guillermo_031023_061023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1698BB-C210-4EB2-8227-F9AC63739EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE057C15-7CBE-4B2E-BF75-84FB7C7FF515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0C488055-E415-4EE0-9C7C-F8FFF0BA9D31}"/>
   </bookViews>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922C94B0-E8DE-498F-9C90-99CA3342A035}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,7 +479,7 @@
     <col min="10" max="10" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45202.5625</v>
       </c>
@@ -513,7 +513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45202.583333333336</v>
       </c>
@@ -530,280 +530,241 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G4" s="2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>45203.569444444445</v>
       </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>45203.569444444445</v>
       </c>
-      <c r="J4" s="2">
+      <c r="D4" s="2">
         <v>45203.569444444445</v>
       </c>
-      <c r="K4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="G5" s="2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>45203.569444444445</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
         <v>45203.569444444445</v>
       </c>
-      <c r="J5" s="2">
+      <c r="D5" s="2">
         <v>45203.576388888891</v>
       </c>
-      <c r="K5" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="G6" s="2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>45203.576388888891</v>
       </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>45203.576388888891</v>
       </c>
-      <c r="J6" s="2">
+      <c r="D6" s="2">
         <v>45203.583333333336</v>
       </c>
-      <c r="K6" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="G7" s="2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>45203.583333333336</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
         <v>45203.583333333336</v>
       </c>
-      <c r="J7" s="2">
+      <c r="D7" s="2">
         <v>45203.590277777781</v>
       </c>
-      <c r="K7" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="G8" s="2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>45203.590277777781</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>45203.590277777781</v>
       </c>
-      <c r="J8" s="2">
+      <c r="D8" s="2">
         <v>45203.597222222219</v>
       </c>
-      <c r="K8" t="s">
+      <c r="E8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="G9" s="2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>45203.597222222219</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
         <v>45203.597222222219</v>
       </c>
-      <c r="J9" s="2">
+      <c r="D9" s="2">
         <v>45203.604166666664</v>
       </c>
-      <c r="K9" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="G10" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>45203.604166666664</v>
       </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <v>45203.604166666664</v>
       </c>
-      <c r="J10" s="2">
+      <c r="D10" s="2">
         <v>45204.5625</v>
       </c>
-      <c r="K10" t="s">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="G11" s="2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>45204.569444444445</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
         <v>45204.569444444445</v>
       </c>
-      <c r="J11" s="2">
+      <c r="D11" s="2">
         <v>45204.576388888891</v>
       </c>
-      <c r="K11" t="s">
+      <c r="E11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>45204.576388888891</v>
       </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <v>45204.576388888891</v>
       </c>
-      <c r="J12" s="2">
+      <c r="D12" s="2">
         <v>45204.583333333336</v>
       </c>
-      <c r="K12" t="s">
+      <c r="E12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="G13" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>45204.583333333336</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
         <v>45204.583333333336</v>
       </c>
-      <c r="J13" s="2">
+      <c r="D13" s="2">
         <v>45204.590277777781</v>
       </c>
-      <c r="K13" t="s">
+      <c r="E13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="G14" s="2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>45204.590277777781</v>
       </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <v>45204.590277777781</v>
       </c>
-      <c r="J14" s="2">
+      <c r="D14" s="2">
         <v>45204.597222222219</v>
       </c>
-      <c r="K14" t="s">
+      <c r="E14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="G15" s="2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>45204.597222222219</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
         <v>45204.597222222219</v>
       </c>
-      <c r="J15" s="2">
+      <c r="D15" s="2">
         <v>45205.576388888891</v>
       </c>
-      <c r="K15" t="s">
+      <c r="E15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="G16" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>45205.576388888891</v>
       </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
         <v>45205.576388888891</v>
       </c>
-      <c r="J16" s="2">
+      <c r="D16" s="2">
         <v>45205.583333333336</v>
       </c>
-      <c r="K16" t="s">
+      <c r="E16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="G17" s="2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>45205.583333333336</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
         <v>45205.583333333336</v>
       </c>
-      <c r="J17" s="2">
+      <c r="D17" s="2">
         <v>45205.590277777781</v>
       </c>
-      <c r="K17" t="s">
+      <c r="E17" t="s">
         <v>9</v>
       </c>
     </row>

--- a/OC_ModeloGMO_Guillermo_031023_061023.xlsx
+++ b/OC_ModeloGMO_Guillermo_031023_061023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE057C15-7CBE-4B2E-BF75-84FB7C7FF515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C9397A-4C41-42B4-A837-001F6A55441D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0C488055-E415-4EE0-9C7C-F8FFF0BA9D31}"/>
   </bookViews>
@@ -98,12 +98,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -127,6 +133,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +472,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,13 +562,13 @@
       <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
-        <v>45203.569444444445</v>
+      <c r="C5" s="4">
+        <v>45203.570138888892</v>
       </c>
       <c r="D5" s="2">
         <v>45203.576388888891</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/OC_ModeloGMO_Guillermo_031023_061023.xlsx
+++ b/OC_ModeloGMO_Guillermo_031023_061023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C9397A-4C41-42B4-A837-001F6A55441D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ABE0AB-E945-4B12-9A28-00E327B08F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0C488055-E415-4EE0-9C7C-F8FFF0BA9D31}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>date</t>
   </si>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922C94B0-E8DE-498F-9C90-99CA3342A035}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,273 +506,324 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45202.5625</v>
+        <v>45203.569444444445</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45202.5625</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45203.570138888892</v>
       </c>
       <c r="D2" s="2">
-        <v>45202.583333333336</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>45203.576388888891</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45202.583333333336</v>
+        <v>45203.576388888891</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>45202.583333333336</v>
+        <v>45203.576388888891</v>
       </c>
       <c r="D3" s="2">
-        <v>45203.5625</v>
+        <v>45203.583333333336</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
+        <v>45203.583333333336</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45203.583333333336</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45203.590277777781</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K25" s="2">
+        <v>45202.5625</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>45202.5625</v>
+      </c>
+      <c r="N25" s="2">
+        <v>45202.583333333336</v>
+      </c>
+      <c r="O25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K26" s="2">
+        <v>45202.583333333336</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>45202.583333333336</v>
+      </c>
+      <c r="N26" s="2">
+        <v>45203.5625</v>
+      </c>
+      <c r="O26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K27" s="2">
         <v>45203.569444444445</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
         <v>45203.569444444445</v>
       </c>
-      <c r="D4" s="2">
+      <c r="N27" s="2">
         <v>45203.569444444445</v>
       </c>
-      <c r="E4" t="s">
+      <c r="O27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="28" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K28" s="2">
         <v>45203.569444444445</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
         <v>45203.570138888892</v>
       </c>
-      <c r="D5" s="2">
+      <c r="N28" s="2">
         <v>45203.576388888891</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="O28" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="29" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K29" s="2">
         <v>45203.576388888891</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
         <v>45203.576388888891</v>
       </c>
-      <c r="D6" s="2">
+      <c r="N29" s="2">
         <v>45203.583333333336</v>
       </c>
-      <c r="E6" t="s">
+      <c r="O29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="30" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K30" s="2">
         <v>45203.583333333336</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
         <v>45203.583333333336</v>
       </c>
-      <c r="D7" s="2">
+      <c r="N30" s="2">
         <v>45203.590277777781</v>
       </c>
-      <c r="E7" t="s">
+      <c r="O30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="31" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K31" s="2">
         <v>45203.590277777781</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
         <v>45203.590277777781</v>
       </c>
-      <c r="D8" s="2">
+      <c r="N31" s="2">
         <v>45203.597222222219</v>
       </c>
-      <c r="E8" t="s">
+      <c r="O31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="32" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K32" s="2">
         <v>45203.597222222219</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
         <v>45203.597222222219</v>
       </c>
-      <c r="D9" s="2">
+      <c r="N32" s="2">
         <v>45203.604166666664</v>
       </c>
-      <c r="E9" t="s">
+      <c r="O32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="33" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K33" s="2">
         <v>45203.604166666664</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
         <v>45203.604166666664</v>
       </c>
-      <c r="D10" s="2">
+      <c r="N33" s="2">
         <v>45204.5625</v>
       </c>
-      <c r="E10" t="s">
+      <c r="O33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="34" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K34" s="2">
         <v>45204.569444444445</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
         <v>45204.569444444445</v>
       </c>
-      <c r="D11" s="2">
+      <c r="N34" s="2">
         <v>45204.576388888891</v>
       </c>
-      <c r="E11" t="s">
+      <c r="O34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="35" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K35" s="2">
         <v>45204.576388888891</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
         <v>45204.576388888891</v>
       </c>
-      <c r="D12" s="2">
+      <c r="N35" s="2">
         <v>45204.583333333336</v>
       </c>
-      <c r="E12" t="s">
+      <c r="O35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="36" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K36" s="2">
         <v>45204.583333333336</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
         <v>45204.583333333336</v>
       </c>
-      <c r="D13" s="2">
+      <c r="N36" s="2">
         <v>45204.590277777781</v>
       </c>
-      <c r="E13" t="s">
+      <c r="O36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="37" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K37" s="2">
         <v>45204.590277777781</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
         <v>45204.590277777781</v>
       </c>
-      <c r="D14" s="2">
+      <c r="N37" s="2">
         <v>45204.597222222219</v>
       </c>
-      <c r="E14" t="s">
+      <c r="O37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="38" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K38" s="2">
         <v>45204.597222222219</v>
       </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
         <v>45204.597222222219</v>
       </c>
-      <c r="D15" s="2">
+      <c r="N38" s="2">
         <v>45205.576388888891</v>
       </c>
-      <c r="E15" t="s">
+      <c r="O38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="39" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K39" s="2">
         <v>45205.576388888891</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
         <v>45205.576388888891</v>
       </c>
-      <c r="D16" s="2">
+      <c r="N39" s="2">
         <v>45205.583333333336</v>
       </c>
-      <c r="E16" t="s">
+      <c r="O39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="40" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K40" s="2">
         <v>45205.583333333336</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
         <v>45205.583333333336</v>
       </c>
-      <c r="D17" s="2">
+      <c r="N40" s="2">
         <v>45205.590277777781</v>
       </c>
-      <c r="E17" t="s">
+      <c r="O40" t="s">
         <v>9</v>
       </c>
     </row>

--- a/OC_ModeloGMO_Guillermo_031023_061023.xlsx
+++ b/OC_ModeloGMO_Guillermo_031023_061023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ABE0AB-E945-4B12-9A28-00E327B08F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9582F40F-F802-4202-B5C6-1DA7BED12632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0C488055-E415-4EE0-9C7C-F8FFF0BA9D31}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>date</t>
   </si>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922C94B0-E8DE-498F-9C90-99CA3342A035}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,324 +506,273 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45203.569444444445</v>
+        <v>45202.5625</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>45203.570138888892</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45202.5625</v>
       </c>
       <c r="D2" s="2">
-        <v>45203.576388888891</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>45202.583333333336</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45203.576388888891</v>
+        <v>45202.583333333336</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>45203.576388888891</v>
+        <v>45202.583333333336</v>
       </c>
       <c r="D3" s="2">
-        <v>45203.583333333336</v>
+        <v>45203.5625</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
+        <v>45203.569444444445</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45203.569444444445</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45203.569444444445</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45203.569444444445</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45203.570138888892</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45203.576388888891</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45203.576388888891</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45203.576388888891</v>
+      </c>
+      <c r="D6" s="2">
         <v>45203.583333333336</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>45203.583333333336</v>
       </c>
-      <c r="D4" s="2">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45203.583333333336</v>
+      </c>
+      <c r="D7" s="2">
         <v>45203.590277777781</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K25" s="2">
-        <v>45202.5625</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-      <c r="M25" s="2">
-        <v>45202.5625</v>
-      </c>
-      <c r="N25" s="2">
-        <v>45202.583333333336</v>
-      </c>
-      <c r="O25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K26" s="2">
-        <v>45202.583333333336</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
-        <v>45202.583333333336</v>
-      </c>
-      <c r="N26" s="2">
-        <v>45203.5625</v>
-      </c>
-      <c r="O26" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45203.590277777781</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45203.590277777781</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45203.597222222219</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45203.597222222219</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45203.597222222219</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45203.604166666664</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45203.604166666664</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45203.604166666664</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45204.5625</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45204.569444444445</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45204.569444444445</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45204.576388888891</v>
+      </c>
+      <c r="E11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K27" s="2">
-        <v>45203.569444444445</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="M27" s="2">
-        <v>45203.569444444445</v>
-      </c>
-      <c r="N27" s="2">
-        <v>45203.569444444445</v>
-      </c>
-      <c r="O27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K28" s="2">
-        <v>45203.569444444445</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-      <c r="M28" s="4">
-        <v>45203.570138888892</v>
-      </c>
-      <c r="N28" s="2">
-        <v>45203.576388888891</v>
-      </c>
-      <c r="O28" s="5" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45204.576388888891</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45204.576388888891</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45204.583333333336</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45204.583333333336</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45204.583333333336</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45204.590277777781</v>
+      </c>
+      <c r="E13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K29" s="2">
-        <v>45203.576388888891</v>
-      </c>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2">
-        <v>45203.576388888891</v>
-      </c>
-      <c r="N29" s="2">
-        <v>45203.583333333336</v>
-      </c>
-      <c r="O29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K30" s="2">
-        <v>45203.583333333336</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>45203.583333333336</v>
-      </c>
-      <c r="N30" s="2">
-        <v>45203.590277777781</v>
-      </c>
-      <c r="O30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K31" s="2">
-        <v>45203.590277777781</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
-      <c r="M31" s="2">
-        <v>45203.590277777781</v>
-      </c>
-      <c r="N31" s="2">
-        <v>45203.597222222219</v>
-      </c>
-      <c r="O31" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45204.590277777781</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45204.590277777781</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45204.597222222219</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45204.597222222219</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45204.597222222219</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45205.576388888891</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45205.576388888891</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45205.576388888891</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45205.583333333336</v>
+      </c>
+      <c r="E16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K32" s="2">
-        <v>45203.597222222219</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
-        <v>45203.597222222219</v>
-      </c>
-      <c r="N32" s="2">
-        <v>45203.604166666664</v>
-      </c>
-      <c r="O32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K33" s="2">
-        <v>45203.604166666664</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1</v>
-      </c>
-      <c r="M33" s="2">
-        <v>45203.604166666664</v>
-      </c>
-      <c r="N33" s="2">
-        <v>45204.5625</v>
-      </c>
-      <c r="O33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K34" s="2">
-        <v>45204.569444444445</v>
-      </c>
-      <c r="L34" s="3">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2">
-        <v>45204.569444444445</v>
-      </c>
-      <c r="N34" s="2">
-        <v>45204.576388888891</v>
-      </c>
-      <c r="O34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K35" s="2">
-        <v>45204.576388888891</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1</v>
-      </c>
-      <c r="M35" s="2">
-        <v>45204.576388888891</v>
-      </c>
-      <c r="N35" s="2">
-        <v>45204.583333333336</v>
-      </c>
-      <c r="O35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K36" s="2">
-        <v>45204.583333333336</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2">
-        <v>45204.583333333336</v>
-      </c>
-      <c r="N36" s="2">
-        <v>45204.590277777781</v>
-      </c>
-      <c r="O36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K37" s="2">
-        <v>45204.590277777781</v>
-      </c>
-      <c r="L37" s="3">
-        <v>1</v>
-      </c>
-      <c r="M37" s="2">
-        <v>45204.590277777781</v>
-      </c>
-      <c r="N37" s="2">
-        <v>45204.597222222219</v>
-      </c>
-      <c r="O37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K38" s="2">
-        <v>45204.597222222219</v>
-      </c>
-      <c r="L38" s="3">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
-        <v>45204.597222222219</v>
-      </c>
-      <c r="N38" s="2">
-        <v>45205.576388888891</v>
-      </c>
-      <c r="O38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K39" s="2">
-        <v>45205.576388888891</v>
-      </c>
-      <c r="L39" s="3">
-        <v>1</v>
-      </c>
-      <c r="M39" s="2">
-        <v>45205.576388888891</v>
-      </c>
-      <c r="N39" s="2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>45205.583333333336</v>
       </c>
-      <c r="O39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K40" s="2">
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
         <v>45205.583333333336</v>
       </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
-        <v>45205.583333333336</v>
-      </c>
-      <c r="N40" s="2">
+      <c r="D17" s="2">
         <v>45205.590277777781</v>
       </c>
-      <c r="O40" t="s">
+      <c r="E17" t="s">
         <v>9</v>
       </c>
     </row>
